--- a/applications/master/data/national/prog_settings.xlsx
+++ b/applications/master/data/national/prog_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{05BC1B9F-697C-334D-B9A0-F41188BD501B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C2401E63-13E9-214F-B6F2-ECB218AC7693}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="3" activeTab="6" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
+    <workbookView xWindow="-26020" yWindow="-20940" windowWidth="19200" windowHeight="21140" firstSheet="1" activeTab="2" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="IYCF packages" sheetId="7" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="78">
   <si>
     <t>Coverage</t>
   </si>
@@ -589,7 +589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1396,7 +1396,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
@@ -1404,7 +1404,7 @@
     <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>72</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E2" s="25"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="B3" s="32" t="s">
         <v>66</v>
@@ -1445,7 +1445,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="34"/>
       <c r="B4" s="32" t="s">
         <v>65</v>
@@ -1454,7 +1454,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="34"/>
       <c r="B5" s="32" t="s">
         <v>64</v>
@@ -1463,7 +1463,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="34"/>
       <c r="B6" s="32" t="s">
         <v>63</v>
@@ -1472,7 +1472,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
       <c r="B7" s="32" t="s">
         <v>62</v>
@@ -1481,7 +1481,7 @@
       <c r="D7" s="30"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="B10" s="32" t="s">
         <v>66</v>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="32" t="s">
         <v>65</v>
@@ -1514,7 +1514,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="26"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
       <c r="B12" s="32" t="s">
         <v>64</v>
@@ -1523,7 +1523,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="26"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="32" t="s">
         <v>63</v>
@@ -1532,7 +1532,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="26"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="32" t="s">
         <v>62</v>
@@ -1541,7 +1541,7 @@
       <c r="D14" s="30"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="35" t="s">
         <v>4</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
       <c r="B17" s="32" t="s">
         <v>66</v>
@@ -1561,7 +1561,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
       <c r="B18" s="32" t="s">
         <v>65</v>
@@ -1570,7 +1570,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="26"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
       <c r="B19" s="32" t="s">
         <v>64</v>
@@ -1579,7 +1579,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="26"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
       <c r="B20" s="32" t="s">
         <v>63</v>
@@ -1588,7 +1588,7 @@
       <c r="D20" s="29"/>
       <c r="E20" s="26"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
       <c r="B21" s="32" t="s">
         <v>62</v>
@@ -1612,17 +1612,17 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" style="38" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1630,301 +1630,229 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="38" t="s">
         <v>17</v>
       </c>
@@ -1932,7 +1860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="38" t="s">
         <v>16</v>
       </c>
@@ -1940,83 +1868,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" s="10"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="B48" s="10"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="38" t="s">
         <v>4</v>
       </c>
@@ -2035,11 +1947,11 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" style="38" customWidth="1"/>
     <col min="2" max="2" width="20" style="16" customWidth="1"/>
@@ -2048,7 +1960,7 @@
     <col min="5" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +1974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
         <v>54</v>
       </c>
@@ -2076,7 +1988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>53</v>
       </c>
@@ -2091,7 +2003,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
         <v>52</v>
       </c>
@@ -2106,7 +2018,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
@@ -2122,7 +2034,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
         <v>50</v>
       </c>
@@ -2138,7 +2050,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
         <v>49</v>
       </c>
@@ -2153,7 +2065,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38" t="s">
         <v>48</v>
       </c>
@@ -2168,7 +2080,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38" t="s">
         <v>47</v>
       </c>
@@ -2183,7 +2095,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -2197,7 +2109,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>45</v>
       </c>
@@ -2211,7 +2123,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38" t="s">
         <v>44</v>
       </c>
@@ -2225,7 +2137,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38" t="s">
         <v>43</v>
       </c>
@@ -2239,7 +2151,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
         <v>42</v>
       </c>
@@ -2253,7 +2165,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38" t="s">
         <v>41</v>
       </c>
@@ -2267,7 +2179,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="38" t="s">
         <v>40</v>
       </c>
@@ -2281,7 +2193,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38" t="s">
         <v>39</v>
       </c>
@@ -2295,7 +2207,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38" t="s">
         <v>38</v>
       </c>
@@ -2309,7 +2221,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38" t="s">
         <v>37</v>
       </c>
@@ -2323,7 +2235,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38" t="s">
         <v>36</v>
       </c>
@@ -2337,7 +2249,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
         <v>35</v>
       </c>
@@ -2351,7 +2263,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38" t="s">
         <v>34</v>
       </c>
@@ -2365,7 +2277,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38" t="s">
         <v>33</v>
       </c>
@@ -2379,7 +2291,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
         <v>32</v>
       </c>
@@ -2393,7 +2305,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38" t="s">
         <v>31</v>
       </c>
@@ -2408,7 +2320,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38" t="s">
         <v>30</v>
       </c>
@@ -2423,7 +2335,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38" t="s">
         <v>29</v>
       </c>
@@ -2438,7 +2350,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="38" t="s">
         <v>59</v>
       </c>
@@ -2453,7 +2365,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38" t="s">
         <v>58</v>
       </c>
@@ -2468,7 +2380,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38" t="s">
         <v>57</v>
       </c>
@@ -2483,7 +2395,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38" t="s">
         <v>28</v>
       </c>
@@ -2497,7 +2409,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38" t="s">
         <v>27</v>
       </c>
@@ -2511,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38" t="s">
         <v>26</v>
       </c>
@@ -2525,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="38" t="s">
         <v>25</v>
       </c>
@@ -2540,7 +2452,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="38" t="s">
         <v>24</v>
       </c>
@@ -2555,7 +2467,7 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
         <v>23</v>
       </c>
@@ -2570,7 +2482,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="38" t="s">
         <v>22</v>
       </c>
@@ -2585,7 +2497,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="38" t="s">
         <v>21</v>
       </c>
@@ -2600,7 +2512,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="38" t="s">
         <v>20</v>
       </c>
@@ -2615,12 +2527,12 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C40" s="15">
         <v>0.95</v>
@@ -2630,7 +2542,7 @@
       </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
         <v>18</v>
       </c>
@@ -2645,7 +2557,7 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
         <v>17</v>
       </c>
@@ -2660,12 +2572,12 @@
         <v>10.046400000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="15">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="C43" s="15">
         <v>0.95</v>
@@ -2675,12 +2587,12 @@
         <v>19.933477200000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B44" s="15">
-        <v>0.621</v>
+        <v>0</v>
       </c>
       <c r="C44" s="15">
         <v>0.95</v>
@@ -2689,7 +2601,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="38" t="s">
         <v>14</v>
       </c>
@@ -2703,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="38" t="s">
         <v>13</v>
       </c>
@@ -2717,7 +2629,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="38" t="s">
         <v>12</v>
       </c>
@@ -2731,7 +2643,7 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="38" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +2657,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="38" t="s">
         <v>10</v>
       </c>
@@ -2759,7 +2671,7 @@
         <v>231.85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="38" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2685,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="38" t="s">
         <v>8</v>
       </c>
@@ -2787,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:4" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="38" t="s">
         <v>7</v>
       </c>
@@ -2801,7 +2713,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="38" t="s">
         <v>6</v>
       </c>
@@ -2815,7 +2727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="38" t="s">
         <v>4</v>
       </c>
@@ -2847,12 +2759,12 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40">
+    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>77</v>
       </c>
@@ -2869,7 +2781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
@@ -2888,7 +2800,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="23" t="s">
         <v>66</v>
@@ -2905,7 +2817,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="23" t="s">
         <v>65</v>
@@ -2922,7 +2834,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
       <c r="B5" s="23" t="s">
         <v>64</v>
@@ -2939,7 +2851,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="23" t="s">
         <v>63</v>
@@ -2956,7 +2868,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="37"/>
     </row>
   </sheetData>
@@ -2973,10 +2885,10 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="53" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86" style="1" bestFit="1" customWidth="1"/>
@@ -2984,7 +2896,7 @@
     <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2995,56 +2907,56 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="38" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="38" t="s">
         <v>45</v>
       </c>
@@ -3053,14 +2965,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="38" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>43</v>
       </c>
@@ -3069,14 +2981,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="38" t="s">
         <v>41</v>
       </c>
@@ -3085,14 +2997,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="38" t="s">
         <v>39</v>
       </c>
@@ -3101,14 +3013,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="38" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="38" t="s">
         <v>37</v>
       </c>
@@ -3117,14 +3029,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="38" t="s">
         <v>35</v>
       </c>
@@ -3133,14 +3045,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
         <v>33</v>
       </c>
@@ -3149,14 +3061,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="38" t="s">
         <v>31</v>
       </c>
@@ -3165,7 +3077,7 @@
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
         <v>30</v>
       </c>
@@ -3176,14 +3088,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="38" t="s">
         <v>59</v>
       </c>
@@ -3192,7 +3104,7 @@
       </c>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="38" t="s">
         <v>58</v>
       </c>
@@ -3201,7 +3113,7 @@
       </c>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="38" t="s">
         <v>57</v>
       </c>
@@ -3210,21 +3122,21 @@
       </c>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="38" t="s">
         <v>24</v>
       </c>
@@ -3233,7 +3145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="38" t="s">
         <v>22</v>
       </c>
@@ -3242,14 +3154,14 @@
       </c>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="38" t="s">
         <v>20</v>
       </c>
@@ -3258,7 +3170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="38" t="s">
         <v>19</v>
       </c>
@@ -3267,7 +3179,7 @@
       </c>
       <c r="C35" s="10"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="38" t="s">
         <v>18</v>
       </c>
@@ -3278,49 +3190,49 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="38" t="s">
         <v>4</v>
       </c>
@@ -3345,85 +3257,85 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
     </row>
   </sheetData>
@@ -3439,18 +3351,18 @@
   </sheetPr>
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.5" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="38"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3396,17 @@
       <c r="K1" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="3">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>54</v>
       </c>
@@ -3493,9 +3414,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="39"/>
-      <c r="E2" s="40">
-        <v>0.95</v>
-      </c>
+      <c r="E2" s="40"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
@@ -3506,7 +3425,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="41"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>53</v>
       </c>
@@ -3526,7 +3445,7 @@
       <c r="M3" s="41"/>
       <c r="N3" s="41"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>52</v>
       </c>
@@ -3546,7 +3465,7 @@
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
@@ -3566,7 +3485,7 @@
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>50</v>
       </c>
@@ -3586,7 +3505,7 @@
       <c r="M6" s="41"/>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>49</v>
       </c>
@@ -3606,7 +3525,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>48</v>
       </c>
@@ -3626,7 +3545,7 @@
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>47</v>
       </c>
@@ -3646,7 +3565,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -3666,7 +3585,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>45</v>
       </c>
@@ -3686,7 +3605,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>44</v>
       </c>
@@ -3706,7 +3625,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>43</v>
       </c>
@@ -3726,7 +3645,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>42</v>
       </c>
@@ -3746,7 +3665,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>41</v>
       </c>
@@ -3766,7 +3685,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>40</v>
       </c>
@@ -3786,7 +3705,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>39</v>
       </c>
@@ -3806,7 +3725,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
         <v>38</v>
       </c>
@@ -3826,7 +3745,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
         <v>37</v>
       </c>
@@ -3846,7 +3765,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>36</v>
       </c>
@@ -3866,7 +3785,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
         <v>35</v>
       </c>
@@ -3886,7 +3805,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
         <v>34</v>
       </c>
@@ -3906,7 +3825,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
         <v>33</v>
       </c>
@@ -3926,7 +3845,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>32</v>
       </c>
@@ -3946,7 +3865,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>31</v>
       </c>
@@ -3966,7 +3885,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
         <v>30</v>
       </c>
@@ -3986,7 +3905,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
         <v>29</v>
       </c>
@@ -4006,7 +3925,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
         <v>59</v>
       </c>
@@ -4026,7 +3945,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
         <v>58</v>
       </c>
@@ -4046,7 +3965,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
         <v>57</v>
       </c>
@@ -4066,7 +3985,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
         <v>28</v>
       </c>
@@ -4086,7 +4005,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
         <v>27</v>
       </c>
@@ -4106,7 +4025,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
         <v>26</v>
       </c>
@@ -4126,7 +4045,7 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
         <v>25</v>
       </c>
@@ -4146,7 +4065,7 @@
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
         <v>24</v>
       </c>
@@ -4166,7 +4085,7 @@
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
         <v>23</v>
       </c>
@@ -4186,7 +4105,7 @@
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
         <v>22</v>
       </c>
@@ -4206,7 +4125,7 @@
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
         <v>21</v>
       </c>
@@ -4226,7 +4145,7 @@
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
         <v>20</v>
       </c>
@@ -4246,7 +4165,7 @@
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
         <v>19</v>
       </c>
@@ -4266,7 +4185,7 @@
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
         <v>18</v>
       </c>
@@ -4286,7 +4205,7 @@
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
         <v>17</v>
       </c>
@@ -4294,8 +4213,9 @@
         <v>0</v>
       </c>
       <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
+      <c r="D42" s="40">
+        <v>0.5</v>
+      </c>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
@@ -4306,7 +4226,7 @@
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
         <v>16</v>
       </c>
@@ -4314,8 +4234,9 @@
         <v>0</v>
       </c>
       <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
+      <c r="D43" s="40">
+        <v>0.5</v>
+      </c>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
@@ -4326,7 +4247,7 @@
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
         <v>15</v>
       </c>
@@ -4346,7 +4267,7 @@
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
         <v>14</v>
       </c>
@@ -4366,7 +4287,7 @@
       <c r="M45" s="41"/>
       <c r="N45" s="41"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
         <v>13</v>
       </c>
@@ -4386,7 +4307,7 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="s">
         <v>12</v>
       </c>
@@ -4406,7 +4327,7 @@
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
         <v>11</v>
       </c>
@@ -4426,7 +4347,7 @@
       <c r="M48" s="41"/>
       <c r="N48" s="41"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
         <v>10</v>
       </c>
@@ -4446,7 +4367,7 @@
       <c r="M49" s="41"/>
       <c r="N49" s="41"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
         <v>9</v>
       </c>
@@ -4466,7 +4387,7 @@
       <c r="M50" s="41"/>
       <c r="N50" s="41"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
         <v>8</v>
       </c>
@@ -4486,7 +4407,7 @@
       <c r="M51" s="41"/>
       <c r="N51" s="41"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
         <v>7</v>
       </c>
@@ -4506,7 +4427,7 @@
       <c r="M52" s="41"/>
       <c r="N52" s="41"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="s">
         <v>6</v>
       </c>
@@ -4526,7 +4447,7 @@
       <c r="M53" s="41"/>
       <c r="N53" s="41"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="38" t="s">
         <v>4</v>
       </c>
@@ -4546,7 +4467,7 @@
       <c r="M54" s="41"/>
       <c r="N54" s="41"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C55" s="40"/>
       <c r="D55" s="40"/>
       <c r="E55" s="41"/>
@@ -4573,17 +4494,17 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.5" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="38"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,7 +4518,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>54</v>
       </c>
@@ -4606,7 +4527,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>53</v>
       </c>
@@ -4615,7 +4536,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>52</v>
       </c>
@@ -4624,7 +4545,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
@@ -4633,7 +4554,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>50</v>
       </c>
@@ -4642,7 +4563,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>49</v>
       </c>
@@ -4651,7 +4572,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>48</v>
       </c>
@@ -4660,7 +4581,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>47</v>
       </c>
@@ -4669,7 +4590,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -4678,7 +4599,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>45</v>
       </c>
@@ -4687,7 +4608,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>44</v>
       </c>
@@ -4696,7 +4617,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>43</v>
       </c>
@@ -4705,7 +4626,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>42</v>
       </c>
@@ -4714,7 +4635,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>41</v>
       </c>
@@ -4723,7 +4644,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>40</v>
       </c>
@@ -4732,7 +4653,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>39</v>
       </c>
@@ -4741,7 +4662,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
         <v>38</v>
       </c>
@@ -4750,7 +4671,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
         <v>37</v>
       </c>
@@ -4759,7 +4680,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>36</v>
       </c>
@@ -4768,7 +4689,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
         <v>35</v>
       </c>
@@ -4777,7 +4698,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
         <v>34</v>
       </c>
@@ -4786,7 +4707,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
         <v>33</v>
       </c>
@@ -4795,7 +4716,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>32</v>
       </c>
@@ -4804,7 +4725,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>31</v>
       </c>
@@ -4813,7 +4734,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
         <v>30</v>
       </c>
@@ -4822,7 +4743,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
         <v>29</v>
       </c>
@@ -4831,7 +4752,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
         <v>59</v>
       </c>
@@ -4840,7 +4761,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
         <v>58</v>
       </c>
@@ -4849,7 +4770,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
         <v>57</v>
       </c>
@@ -4858,7 +4779,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
         <v>28</v>
       </c>
@@ -4867,7 +4788,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
         <v>27</v>
       </c>
@@ -4876,7 +4797,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
         <v>26</v>
       </c>
@@ -4885,7 +4806,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
         <v>25</v>
       </c>
@@ -4894,7 +4815,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
         <v>24</v>
       </c>
@@ -4903,7 +4824,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
         <v>23</v>
       </c>
@@ -4912,7 +4833,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
         <v>22</v>
       </c>
@@ -4921,7 +4842,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
         <v>21</v>
       </c>
@@ -4930,7 +4851,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
         <v>20</v>
       </c>
@@ -4939,7 +4860,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
         <v>19</v>
       </c>
@@ -4948,7 +4869,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
         <v>18</v>
       </c>
@@ -4957,7 +4878,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
         <v>17</v>
       </c>
@@ -4966,7 +4887,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
         <v>16</v>
       </c>
@@ -4975,7 +4896,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
         <v>15</v>
       </c>
@@ -4984,7 +4905,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
         <v>14</v>
       </c>
@@ -4993,7 +4914,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
         <v>13</v>
       </c>
@@ -5002,7 +4923,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +4932,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
         <v>11</v>
       </c>
@@ -5020,7 +4941,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
         <v>10</v>
       </c>
@@ -5029,7 +4950,7 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
         <v>9</v>
       </c>
@@ -5038,7 +4959,7 @@
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
         <v>8</v>
       </c>
@@ -5047,7 +4968,7 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
         <v>7</v>
       </c>
@@ -5056,7 +4977,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="s">
         <v>6</v>
       </c>
@@ -5065,7 +4986,7 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="38" t="s">
         <v>4</v>
       </c>

--- a/applications/master/data/national/prog_settings.xlsx
+++ b/applications/master/data/national/prog_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C2401E63-13E9-214F-B6F2-ECB218AC7693}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{46B09C7D-873F-B24A-BCC4-E798031FE097}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26020" yWindow="-20940" windowWidth="19200" windowHeight="21140" firstSheet="1" activeTab="2" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
+    <workbookView xWindow="4120" yWindow="460" windowWidth="19200" windowHeight="15540" firstSheet="2" activeTab="6" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="IYCF packages" sheetId="7" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="78">
   <si>
     <t>Coverage</t>
   </si>
@@ -960,8 +960,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="10">
           <cell r="C10">
@@ -998,9 +998,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="3">
           <cell r="B3">
@@ -1037,7 +1037,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="E2">
@@ -1611,8 +1611,8 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1844,7 +1844,9 @@
       <c r="A37" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="38" t="s">
@@ -1856,23 +1858,21 @@
       <c r="A39" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
@@ -1908,13 +1908,17 @@
       <c r="A47" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="38" t="s">
@@ -1947,8 +1951,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2532,7 +2536,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C40" s="15">
         <v>0.95</v>
@@ -2606,7 +2610,7 @@
         <v>14</v>
       </c>
       <c r="B45" s="15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C45" s="15">
         <v>0.95</v>
@@ -2620,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="B46" s="15">
-        <v>0.38700000000000001</v>
+        <v>0</v>
       </c>
       <c r="C46" s="15">
         <v>0.95</v>
@@ -2634,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="15">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="C47" s="15">
         <v>0.95</v>
@@ -2648,7 +2652,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="15">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="C48" s="15">
         <v>0.95</v>
@@ -2662,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="15">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C49" s="15">
         <v>0.95</v>
@@ -3351,8 +3355,8 @@
   </sheetPr>
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3414,6 +3418,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="40"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -4213,9 +4218,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="39"/>
-      <c r="D42" s="40">
-        <v>0.5</v>
-      </c>
+      <c r="D42" s="40"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
@@ -4234,9 +4237,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="39"/>
-      <c r="D43" s="40">
-        <v>0.5</v>
-      </c>
+      <c r="D43" s="40"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>

--- a/applications/master/data/national/prog_settings.xlsx
+++ b/applications/master/data/national/prog_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{46B09C7D-873F-B24A-BCC4-E798031FE097}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{38ADDE7F-7D3B-794F-B17E-C2C9F20A0BBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="460" windowWidth="19200" windowHeight="15540" firstSheet="2" activeTab="6" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
+    <workbookView xWindow="4120" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="1" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="IYCF packages" sheetId="7" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="78">
   <si>
     <t>Coverage</t>
   </si>
@@ -960,8 +960,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="10">
           <cell r="C10">
@@ -998,9 +998,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="3">
           <cell r="B3">
@@ -1037,7 +1037,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="E2">
@@ -1611,8 +1611,8 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1844,9 +1844,7 @@
       <c r="A37" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="38" t="s">
@@ -1908,17 +1906,13 @@
       <c r="A47" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="38" t="s">
@@ -3355,8 +3349,8 @@
   </sheetPr>
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
